--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -102,6 +102,9 @@
     <t xml:space="preserve">punam</t>
   </si>
   <si>
+    <t xml:space="preserve">completed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Late Office in for two days a month leave</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
     <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shift should have total hour and grace time for late in and early out</t>
   </si>
   <si>
@@ -168,7 +174,13 @@
     <t xml:space="preserve">Loan Entry(apply) allow back date( bug)</t>
   </si>
   <si>
+    <t xml:space="preserve">ukesh need to check on payroll system </t>
+  </si>
+  <si>
     <t xml:space="preserve">Redesign Asset table and issue table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nepali date and english date </t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,7 +219,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,7 +280,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -282,35 +292,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="11" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,17 +332,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -584,7 +586,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -600,13 +602,15 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -616,8 +620,8 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -632,11 +636,11 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -648,11 +652,11 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -664,11 +668,11 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -680,8 +684,8 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -694,8 +698,8 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>32</v>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -708,8 +712,8 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -722,8 +726,8 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -736,8 +740,8 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>35</v>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -753,12 +757,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -769,7 +775,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -785,7 +791,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -801,12 +807,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -817,12 +825,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -832,8 +842,8 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -846,13 +856,15 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>42</v>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -862,13 +874,15 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>43</v>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -878,8 +892,8 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>44</v>
+      <c r="B36" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -894,8 +908,8 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>45</v>
+      <c r="B37" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -910,8 +924,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>46</v>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -926,14 +940,18 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>47</v>
+      <c r="B39" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -942,17 +960,28 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>48</v>
+      <c r="B40" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -159,6 +159,9 @@
     <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">prabin and prabin</t>
+  </si>
+  <si>
     <t xml:space="preserve">continue</t>
   </si>
   <si>
@@ -180,7 +183,7 @@
     <t xml:space="preserve">Redesign Asset table and issue table</t>
   </si>
   <si>
-    <t xml:space="preserve">nepali date and english date </t>
+    <t xml:space="preserve">                   nepali date and english date </t>
   </si>
 </sst>
 </file>
@@ -197,6 +200,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,6 +223,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,7 +285,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -292,15 +297,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="11" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -308,11 +305,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -334,15 +331,15 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9109311740891"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -554,7 +551,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -570,7 +567,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -586,7 +583,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -602,7 +599,7 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -620,7 +617,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -636,7 +633,7 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -652,7 +649,7 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -668,7 +665,7 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -684,7 +681,7 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1"/>
@@ -698,7 +695,7 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1"/>
@@ -712,7 +709,7 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
@@ -726,7 +723,7 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1"/>
@@ -842,7 +839,7 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1"/>
@@ -874,14 +871,14 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -892,8 +889,8 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>46</v>
+      <c r="B36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -908,8 +905,8 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>47</v>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -924,8 +921,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>48</v>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -940,8 +937,8 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>49</v>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
@@ -950,7 +947,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -960,8 +957,8 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>51</v>
+      <c r="B40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>29</v>
@@ -977,7 +974,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>25</v>

--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -102,6 +102,9 @@
     <t xml:space="preserve">punam</t>
   </si>
   <si>
+    <t xml:space="preserve">completed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Late Office in for two days a month leave</t>
   </si>
   <si>
@@ -156,6 +159,12 @@
     <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">prabin and prabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shift should have total hour and grace time for late in and early out</t>
   </si>
   <si>
@@ -168,7 +177,13 @@
     <t xml:space="preserve">Loan Entry(apply) allow back date( bug)</t>
   </si>
   <si>
+    <t xml:space="preserve">ukesh need to check on payroll system </t>
+  </si>
+  <si>
     <t xml:space="preserve">Redesign Asset table and issue table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   nepali date and english date </t>
   </si>
 </sst>
 </file>
@@ -260,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,7 +285,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -282,35 +297,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,17 +329,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -552,7 +551,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -568,7 +567,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -584,7 +583,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -600,13 +599,15 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -616,8 +617,8 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -632,11 +633,11 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -648,11 +649,11 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -664,11 +665,11 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -680,8 +681,8 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -694,8 +695,8 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>32</v>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -708,8 +709,8 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -722,8 +723,8 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -736,8 +737,8 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>35</v>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -753,12 +754,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -769,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -785,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -801,12 +804,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -817,12 +822,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -832,8 +839,8 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -846,13 +853,15 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>42</v>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -862,13 +871,15 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>43</v>
+      <c r="B35" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -878,8 +889,8 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>44</v>
+      <c r="B36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -894,8 +905,8 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>45</v>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -910,8 +921,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>46</v>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -926,14 +937,18 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>47</v>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -942,17 +957,28 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>48</v>
+      <c r="B40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
   </si>
   <si>
-    <t xml:space="preserve">prabin and prabin</t>
+    <t xml:space="preserve">prabin and punam</t>
   </si>
   <si>
     <t xml:space="preserve">continue</t>
@@ -275,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,7 +285,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -297,19 +297,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,15 +327,15 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4089068825911"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9676113360324"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -439,7 +435,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -453,7 +449,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
@@ -467,7 +463,7 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
@@ -481,7 +477,7 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
@@ -495,7 +491,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
@@ -509,7 +505,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1"/>
@@ -523,7 +519,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
@@ -551,7 +547,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -567,7 +563,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -583,7 +579,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -599,7 +595,7 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -617,7 +613,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -633,7 +629,7 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -649,7 +645,7 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -665,7 +661,7 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -681,7 +677,7 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1"/>
@@ -695,7 +691,7 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1"/>
@@ -709,7 +705,7 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
@@ -723,7 +719,7 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1"/>
@@ -839,7 +835,7 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1"/>
@@ -871,7 +867,7 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -889,7 +885,7 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -905,7 +901,7 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -921,7 +917,7 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -937,7 +933,7 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -957,7 +953,7 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="1" t="s">

--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -159,10 +159,7 @@
     <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
   </si>
   <si>
-    <t xml:space="preserve">prabin and punam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
+    <t xml:space="preserve">prabin and prabin</t>
   </si>
   <si>
     <t xml:space="preserve">Shift should have total hour and grace time for late in and early out</t>
@@ -200,7 +197,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -223,7 +219,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,7 +280,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -297,15 +292,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -327,16 +326,17 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4089068825911"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9676113360324"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.59109311740891"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,7 +435,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -449,7 +449,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
@@ -463,7 +463,7 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
@@ -477,7 +477,7 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
@@ -491,7 +491,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
@@ -505,7 +505,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1"/>
@@ -519,7 +519,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
@@ -547,7 +547,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -563,7 +563,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -579,7 +579,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -595,7 +595,7 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -613,7 +613,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -629,7 +629,7 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -645,7 +645,7 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -661,7 +661,7 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -677,7 +677,7 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1"/>
@@ -691,7 +691,7 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1"/>
@@ -705,7 +705,7 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
@@ -719,7 +719,7 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1"/>
@@ -835,7 +835,7 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1"/>
@@ -867,14 +867,14 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -885,8 +885,8 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>47</v>
+      <c r="B36" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -901,8 +901,8 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>48</v>
+      <c r="B37" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -917,8 +917,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>49</v>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -933,8 +933,8 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>50</v>
+      <c r="B39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
@@ -943,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -953,8 +953,8 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>52</v>
+      <c r="B40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>29</v>
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>25</v>

--- a/data/JGI-MS-HRIS.xlsx
+++ b/data/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">                   nepali date and english date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   to do list</t>
   </si>
 </sst>
 </file>
@@ -197,6 +200,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,6 +223,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,7 +285,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -292,19 +297,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,18 +325,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.59109311740891"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4089068825911"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -435,7 +436,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -449,7 +450,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
@@ -463,7 +464,7 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
@@ -477,7 +478,7 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
@@ -491,7 +492,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
@@ -505,7 +506,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1"/>
@@ -519,7 +520,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
@@ -547,7 +548,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -563,7 +564,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -579,7 +580,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -595,7 +596,7 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -613,7 +614,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -629,7 +630,7 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -645,7 +646,7 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -661,7 +662,7 @@
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -677,7 +678,7 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1"/>
@@ -691,7 +692,7 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1"/>
@@ -705,7 +706,7 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1"/>
@@ -719,7 +720,7 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1"/>
@@ -835,7 +836,7 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1"/>
@@ -867,7 +868,7 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -885,7 +886,7 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -901,7 +902,7 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -917,7 +918,7 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -933,7 +934,7 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -953,7 +954,7 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -974,6 +975,11 @@
       </c>
       <c r="C41" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
